--- a/Dataset/Folds/Fold_4/Excel/69.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/69.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9519" uniqueCount="1116">
   <si>
     <t>Doi</t>
   </si>
@@ -3335,6 +3335,351 @@
   </si>
   <si>
     <t>[Andrea%Amerio%NULL%1,                            Davide%Bianchi%NULL%1,                            Francesca%Santi%NULL%1,                            Luigi%Costantini%NULL%1,                            Anna%Odone%NULL%1,                            Carlo%Signorelli%NULL%0,                            Alessandra%Costanza%NULL%1,                            Gianluca%Serafini%NULL%1,                            Mario%Amore%NULL%1,                            Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                             Martín%Gagliardi%NULL%2,                             Martín%Gagliardi%NULL%0,                             Nicolas%Coombes%NULL%1,                             Federico%Landriel%NULL%2,                             Federico%Landriel%NULL%0,                             Carlos%Zanardi%NULL%1,                             Gastón Camino%Willhuber%NULL%1,                             Juan Pablo%Guyot%NULL%1,                             Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                             Nathaniel%Scherer%NULL%10,                             Lambert%Felix%NULL%20,                             Lambert%Felix%NULL%0,                             Hannah%Kuper%NULL%20,                             Hannah%Kuper%NULL%0,                             Jakob%Pietschnig%NULL%20,                             Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                             Nathaniel%Scherer%NULL%0,                             Lambert%Felix%NULL%0,                             Lambert%Felix%NULL%0,                             Hannah%Kuper%NULL%0,                             Hannah%Kuper%NULL%0,                             Jakob%Pietschnig%NULL%0,                             Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                             Koffi Mawuse%Guédénon%NULL%2,                             Koffi Mawuse%Guédénon%NULL%0,                             Ayoko Akouavi%Dogbe Foli%NULL%1,                             Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                             Simeng%Ma%NULL%0,                             Ying%Wang%NULL%0,                             Zhongxiang%Cai%NULL%0,                             Jianbo%Hu%NULL%0,                             Ning%Wei%NULL%0,                             Jiang%Wu%NULL%0,                             Hui%Du%NULL%0,                             Tingting%Chen%NULL%0,                             Ruiting%Li%NULL%0,                             Huawei%Tan%NULL%0,                             Lijun%Kang%NULL%0,                             Lihua%Yao%NULL%0,                             Manli%Huang%NULL%0,                             Huafen%Wang%NULL%0,                             Gaohua%Wang%NULL%0,                             Zhongchun%Liu%NULL%0,                             Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                             Teresa%Arora%NULL%1,                             Ian%Grey%NULL%1,                             Lorna Kwai Ping%Suen%NULL%1,                             Emma Yun-zhi%Huang%NULL%1,                             Daofan%Li%NULL%1,                             Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                             Youlin%Chen%NULL%1,                             Jianlin%Lv%NULL%1,                             Linlin%Liu%NULL%1,                             Shiqin%Zong%NULL%1,                             Hanxia%Li%NULL%1,                             Hong%Li%NULL%1,                             Massimo%Tusconi.%NULL%2,                             Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                             Hang%Wang%NULL%1,                             Yuxing%Lin%NULL%1,                             Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                             Eman Zmaily%Dahmash%NULL%2,                             Eman Zmaily%Dahmash%NULL%0,                             Rabaa%Al‐Rousan%NULL%2,                             Rabaa%Al‐Rousan%NULL%0,                             Hassan%Alwafi%NULL%1,                             Hamzeh Mohammad%Alrawashdeh%NULL%1,                             Imene%Ghoul%NULL%1,                             Anwer%Abidine%NULL%1,                             Mohammed A.%Bokhary%NULL%1,                             Hadeel T.%AL‐Hadithi%NULL%1,                             Dalia%Ali%NULL%1,                             Rasha%Abuthawabeh%NULL%1,                             Ghada Mohammad%Abdelwahab%NULL%1,                             Yosra J.%Alhartani%NULL%1,                             Haneen%Al Muhaisen%NULL%1,                             Ayah%Dagash%NULL%1,                             Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                             Zahra%Bostani%NULL%1,                             Saman%Maroufizadeh%NULL%1,                             Atefeh%Ghanbari%NULL%1,                             Maryam%Khoshbakht%NULL%1,                             Seyed Amirhossein%Alavi%NULL%1,                             Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                             Le%Shi%NULL%2,                             Le%Shi%NULL%0,                             Jiahui%Deng%NULL%1,                             Jiajia%Liu%NULL%1,                             Li%Zhang%NULL%0,                             Suying%Wu%NULL%1,                             Yimiao%Gong%NULL%1,                             Weizhen%Huang%NULL%1,                             Kai%Yuan%NULL%1,                             Wei%Yan%NULL%1,                             Yankun%Sun%NULL%1,                             Maosheng%Ran%NULL%1,                             Yanping%Bao%NULL%1,                             Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                             Valentina%Socci%NULL%0,                             Francesca%Pacitti%NULL%0,                             Giorgio%Di Lorenzo%NULL%0,                             Antinisca%Di Marco%NULL%0,                             Alberto%Siracusano%NULL%0,                             Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                             Franchesca%Diaz%NULL%1,                             Nathalie%Moise%NULL%1,                             D. Edmund%Anstey%NULL%1,                             Siqin%Ye%NULL%1,                             Sachin%Agarwal%NULL%1,                             Jeffrey L.%Birk%NULL%1,                             Daniel%Brodie%NULL%0,                             Diane E.%Cannone%NULL%1,                             Bernard%Chang%NULL%1,                             Jan%Claassen%NULL%2,                             Talea%Cornelius%NULL%1,                             Lilly%Derby%NULL%1,                             Melissa%Dong%NULL%1,                             Raymond C.%Givens%NULL%1,                             Beth%Hochman%NULL%1,                             Shunichi%Homma%NULL%1,                             Ian M.%Kronish%NULL%1,                             Sung A.J.%Lee%NULL%1,                             Wilhelmina%Manzano%NULL%1,                             Laurel E.S.%Mayer%NULL%1,                             Cara L.%McMurry%NULL%1,                             Vivek%Moitra%NULL%1,                             Patrick%Pham%NULL%1,                             LeRoy%Rabbani%NULL%1,                             Reynaldo R.%Rivera%NULL%1,                             Allan%Schwartz%NULL%2,                             Joseph E.%Schwartz%NULL%1,                             Peter A.%Shapiro%NULL%1,                             Kaitlin%Shaw%NULL%1,                             Alexandra M.%Sullivan%NULL%1,                             Courtney%Vose%NULL%1,                             Lauren%Wasson%NULL%1,                             Donald%Edmondson%NULL%1,                             Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                             Wenning%Fu%NULL%0,                             Xiaoran%Liu%NULL%0,                             Zhiqian%Luo%NULL%0,                             Rixing%Wang%NULL%0,                             Ning%Zhou%NULL%0,                             Shijiao%Yan%NULL%0,                             Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                             Hong-Tao%Guo%NULL%1,                             Xue-Wei%Du%NULL%1,                             Wen%Song%NULL%1,                             Chang%Lu%NULL%1,                             Wen-Nv%Hao%NULL%1,                             Maria%Kapritsou.%NULL%3,                             Maria%Kapritsou.%NULL%0,                             Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                             Xiaobin%Zhu%NULL%1,                             Shuai%Fu%NULL%1,                             Yugang%Hu%NULL%1,                             Xiaoning%Li%NULL%1,                             Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                             Jing%Liu%NULL%0,                             Asghar%Afshar Jahanshahi%NULL%1,                             Khaled%Nawaser%NULL%1,                             Ali%Yousefi%NULL%1,                             Jizhen%Li%NULL%1,                             Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                             Kun%Wang%NULL%2,                             Lu%Yin%NULL%0,                             Wen-feng%Zhao%NULL%1,                             Qing%Xue%NULL%1,                             Mao%Peng%NULL%1,                             Bao-quan%Min%NULL%1,                             Qing%Tian%NULL%1,                             Hai-xia%Leng%NULL%1,                             Jia-lin%Du%NULL%1,                             Hong%Chang%NULL%1,                             Yuan%Yang%NULL%0,                             Wei%Li%NULL%2,                             Fang-fang%Shangguan%NULL%1,                             Tian-yi%Yan%NULL%1,                             Hui-qing%Dong%NULL%1,                             Ying%Han%NULL%1,                             Yu-ping%Wang%NULL%1,                             Fiammetta%Cosci%NULL%1,                             Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                             Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                             Lin%Sun%NULL%1,                             Lan%Zhang%NULL%1,                             Huan%Wang%NULL%1,                             Ajiao%Fan%NULL%1,                             Bin%Yang%NULL%1,                             Wei%Li%NULL%0,                             Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                             Lu%Dong%NULL%1,                             Tao%Wang%NULL%0,                             Chenxin%Yuan%NULL%1,                             Rao%Fu%NULL%1,                             Lei%Zhang%NULL%2,                             Bo%Liu%NULL%1,                             Mingmin%Zhang%NULL%1,                             Yuanyuan%Yin%NULL%1,                             Jiawen%Qin%NULL%1,                             Jennifer%Bouey%NULL%1,                             Min%Zhao%NULL%1,                             Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                             Ayşe%Kurtulmuş%NULL%1,                             Selim%Arpacıoğlu%NULL%1,                             Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                             Gunther%Eysenbach%NULL%1,                             Albert%Wu%NULL%2,                             Albert%Wu%NULL%0,                             Bojana%Knezevic%NULL%1,                             Bradley A%Evanoff%bevanoff@wustl.edu%2,                             Bradley A%Evanoff%bevanoff@wustl.edu%0,                             Jaime R%Strickland%NULL%2,                             Jaime R%Strickland%NULL%0,                             Ann Marie%Dale%NULL%2,                             Ann Marie%Dale%NULL%0,                             Lisa%Hayibor%NULL%2,                             Lisa%Hayibor%NULL%0,                             Emily%Page%NULL%2,                             Emily%Page%NULL%0,                             Jennifer G%Duncan%NULL%2,                             Jennifer G%Duncan%NULL%0,                             Thomas%Kannampallil%NULL%2,                             Thomas%Kannampallil%NULL%0,                             Diana L%Gray%NULL%2,                             Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                             Ranjan%Bhattacharyya%NULL%1,                             Sumita%Bhattacharyya%NULL%1,                             Sukanya%Gupta%NULL%1,                             Soumitra%Das%NULL%1,                             Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                             Xinghuang%Liu%NULL%2,                             Xinghuang%Liu%NULL%0,                             Dongke%Wang%NULL%2,                             Dongke%Wang%NULL%0,                             Yan%Jin%NULL%2,                             Yan%Jin%NULL%0,                             Miao%He%NULL%1,                             Yanling%Ma%NULL%1,                             Xiaolong%Zhao%NULL%1,                             Shuangning%Song%NULL%1,                             Lei%Zhang%NULL%0,                             Xuelian%Xiang%NULL%1,                             Ling%Yang%NULL%0,                             Jun%Song%song111jun@126.com%1,                             Tao%Bai%drbaitao@126.com%4,                             Xiaohua%Hou%houxh@hust.edu.cn%2,                             Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                             Hao%Zhou%haoye320@163.com%1,                             Yan%Zhou%NULL%1,                             Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                             Piyaporn%Apisarnthanarak%NULL%2,                             Piyaporn%Apisarnthanarak%NULL%0,                             Chanida%Siripraparat%NULL%2,                             Chanida%Siripraparat%NULL%0,                             Pavarat%Saengaram%NULL%1,                             Narakorn%Leeprechanon%NULL%1,                             David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                             Davide%Bianchi%NULL%1,                             Francesca%Santi%NULL%1,                             Luigi%Costantini%NULL%1,                             Anna%Odone%NULL%1,                             Carlo%Signorelli%NULL%0,                             Alessandra%Costanza%NULL%1,                             Gianluca%Serafini%NULL%1,                             Mario%Amore%NULL%1,                             Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%1,                              Martín%Gagliardi%NULL%2,                              Martín%Gagliardi%NULL%0,                              Nicolas%Coombes%NULL%1,                              Federico%Landriel%NULL%2,                              Federico%Landriel%NULL%0,                              Carlos%Zanardi%NULL%1,                              Gastón Camino%Willhuber%NULL%1,                              Juan Pablo%Guyot%NULL%1,                              Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                              Nathaniel%Scherer%NULL%10,                              Lambert%Felix%NULL%20,                              Lambert%Felix%NULL%0,                              Hannah%Kuper%NULL%20,                              Hannah%Kuper%NULL%0,                              Jakob%Pietschnig%NULL%20,                              Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0,                              Nathaniel%Scherer%NULL%0,                              Lambert%Felix%NULL%0,                              Lambert%Felix%NULL%0,                              Hannah%Kuper%NULL%0,                              Hannah%Kuper%NULL%0,                              Jakob%Pietschnig%NULL%0,                              Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%1,                              Koffi Mawuse%Guédénon%NULL%2,                              Koffi Mawuse%Guédénon%NULL%0,                              Ayoko Akouavi%Dogbe Foli%NULL%1,                              Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                              Simeng%Ma%NULL%0,                              Ying%Wang%NULL%0,                              Zhongxiang%Cai%NULL%0,                              Jianbo%Hu%NULL%0,                              Ning%Wei%NULL%0,                              Jiang%Wu%NULL%0,                              Hui%Du%NULL%0,                              Tingting%Chen%NULL%0,                              Ruiting%Li%NULL%0,                              Huawei%Tan%NULL%0,                              Lijun%Kang%NULL%0,                              Lihua%Yao%NULL%0,                              Manli%Huang%NULL%0,                              Huafen%Wang%NULL%0,                              Gaohua%Wang%NULL%0,                              Zhongchun%Liu%NULL%0,                              Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%1,                              Teresa%Arora%NULL%1,                              Ian%Grey%NULL%1,                              Lorna Kwai Ping%Suen%NULL%1,                              Emma Yun-zhi%Huang%NULL%1,                              Daofan%Li%NULL%1,                              Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%1,                              Youlin%Chen%NULL%1,                              Jianlin%Lv%NULL%1,                              Linlin%Liu%NULL%1,                              Shiqin%Zong%NULL%1,                              Hanxia%Li%NULL%1,                              Hong%Li%NULL%1,                              Massimo%Tusconi.%NULL%2,                              Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0,                              Hang%Wang%NULL%1,                              Yuxing%Lin%NULL%1,                              Li%Li%lilifuzhou@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0,                              Eman Zmaily%Dahmash%NULL%2,                              Eman Zmaily%Dahmash%NULL%0,                              Rabaa%Al‐Rousan%NULL%2,                              Rabaa%Al‐Rousan%NULL%0,                              Hassan%Alwafi%NULL%1,                              Hamzeh Mohammad%Alrawashdeh%NULL%1,                              Imene%Ghoul%NULL%1,                              Anwer%Abidine%NULL%1,                              Mohammed A.%Bokhary%NULL%1,                              Hadeel T.%AL‐Hadithi%NULL%1,                              Dalia%Ali%NULL%1,                              Rasha%Abuthawabeh%NULL%1,                              Ghada Mohammad%Abdelwahab%NULL%1,                              Yosra J.%Alhartani%NULL%1,                              Haneen%Al Muhaisen%NULL%1,                              Ayah%Dagash%NULL%1,                              Hamad S.%Alyami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%1,                              Zahra%Bostani%NULL%1,                              Saman%Maroufizadeh%NULL%1,                              Atefeh%Ghanbari%NULL%1,                              Maryam%Khoshbakht%NULL%1,                              Seyed Amirhossein%Alavi%NULL%1,                              Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%1,                              Le%Shi%NULL%2,                              Le%Shi%NULL%0,                              Jiahui%Deng%NULL%1,                              Jiajia%Liu%NULL%1,                              Li%Zhang%NULL%0,                              Suying%Wu%NULL%1,                              Yimiao%Gong%NULL%1,                              Weizhen%Huang%NULL%1,                              Kai%Yuan%NULL%1,                              Wei%Yan%NULL%1,                              Yankun%Sun%NULL%1,                              Maosheng%Ran%NULL%1,                              Yanping%Bao%NULL%1,                              Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                              Valentina%Socci%NULL%0,                              Francesca%Pacitti%NULL%0,                              Giorgio%Di Lorenzo%NULL%0,                              Antinisca%Di Marco%NULL%0,                              Alberto%Siracusano%NULL%0,                              Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%1,                              Franchesca%Diaz%NULL%1,                              Nathalie%Moise%NULL%1,                              D. Edmund%Anstey%NULL%1,                              Siqin%Ye%NULL%1,                              Sachin%Agarwal%NULL%1,                              Jeffrey L.%Birk%NULL%1,                              Daniel%Brodie%NULL%0,                              Diane E.%Cannone%NULL%1,                              Bernard%Chang%NULL%1,                              Jan%Claassen%NULL%2,                              Talea%Cornelius%NULL%1,                              Lilly%Derby%NULL%1,                              Melissa%Dong%NULL%1,                              Raymond C.%Givens%NULL%1,                              Beth%Hochman%NULL%1,                              Shunichi%Homma%NULL%1,                              Ian M.%Kronish%NULL%1,                              Sung A.J.%Lee%NULL%1,                              Wilhelmina%Manzano%NULL%1,                              Laurel E.S.%Mayer%NULL%1,                              Cara L.%McMurry%NULL%1,                              Vivek%Moitra%NULL%1,                              Patrick%Pham%NULL%1,                              LeRoy%Rabbani%NULL%1,                              Reynaldo R.%Rivera%NULL%1,                              Allan%Schwartz%NULL%2,                              Joseph E.%Schwartz%NULL%1,                              Peter A.%Shapiro%NULL%1,                              Kaitlin%Shaw%NULL%1,                              Alexandra M.%Sullivan%NULL%1,                              Courtney%Vose%NULL%1,                              Lauren%Wasson%NULL%1,                              Donald%Edmondson%NULL%1,                              Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0,                              Wenning%Fu%NULL%0,                              Xiaoran%Liu%NULL%0,                              Zhiqian%Luo%NULL%0,                              Rixing%Wang%NULL%0,                              Ning%Zhou%NULL%0,                              Shijiao%Yan%NULL%0,                              Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%1,                              Hong-Tao%Guo%NULL%1,                              Xue-Wei%Du%NULL%1,                              Wen%Song%NULL%1,                              Chang%Lu%NULL%1,                              Wen-Nv%Hao%NULL%1,                              Maria%Kapritsou.%NULL%3,                              Maria%Kapritsou.%NULL%0,                              Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0,                              Xiaobin%Zhu%NULL%1,                              Shuai%Fu%NULL%1,                              Yugang%Hu%NULL%1,                              Xiaoning%Li%NULL%1,                              Jinsong%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0,                              Jing%Liu%NULL%0,                              Asghar%Afshar Jahanshahi%NULL%1,                              Khaled%Nawaser%NULL%1,                              Ali%Yousefi%NULL%1,                              Jizhen%Li%NULL%1,                              Shuhua%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0,                              Kun%Wang%NULL%2,                              Lu%Yin%NULL%0,                              Wen-feng%Zhao%NULL%1,                              Qing%Xue%NULL%1,                              Mao%Peng%NULL%1,                              Bao-quan%Min%NULL%1,                              Qing%Tian%NULL%1,                              Hai-xia%Leng%NULL%1,                              Jia-lin%Du%NULL%1,                              Hong%Chang%NULL%1,                              Yuan%Yang%NULL%0,                              Wei%Li%NULL%2,                              Fang-fang%Shangguan%NULL%1,                              Tian-yi%Yan%NULL%1,                              Hui-qing%Dong%NULL%1,                              Ying%Han%NULL%1,                              Yu-ping%Wang%NULL%1,                              Fiammetta%Cosci%NULL%1,                              Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0,                              Ning%Zhao%zhaoning2018@email.szu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0,                              Lin%Sun%NULL%1,                              Lan%Zhang%NULL%1,                              Huan%Wang%NULL%1,                              Ajiao%Fan%NULL%1,                              Bin%Yang%NULL%1,                              Wei%Li%NULL%0,                              Shifu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0,                              Lu%Dong%NULL%1,                              Tao%Wang%NULL%0,                              Chenxin%Yuan%NULL%1,                              Rao%Fu%NULL%1,                              Lei%Zhang%NULL%2,                              Bo%Liu%NULL%1,                              Mingmin%Zhang%NULL%1,                              Yuanyuan%Yin%NULL%1,                              Jiawen%Qin%NULL%1,                              Jennifer%Bouey%NULL%1,                              Min%Zhao%NULL%1,                              Xin%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0,                              Ayşe%Kurtulmuş%NULL%1,                              Selim%Arpacıoğlu%NULL%1,                              Emrah%Karadere%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%1,                              Gunther%Eysenbach%NULL%1,                              Albert%Wu%NULL%2,                              Albert%Wu%NULL%0,                              Bojana%Knezevic%NULL%1,                              Bradley A%Evanoff%bevanoff@wustl.edu%2,                              Bradley A%Evanoff%bevanoff@wustl.edu%0,                              Jaime R%Strickland%NULL%2,                              Jaime R%Strickland%NULL%0,                              Ann Marie%Dale%NULL%2,                              Ann Marie%Dale%NULL%0,                              Lisa%Hayibor%NULL%2,                              Lisa%Hayibor%NULL%0,                              Emily%Page%NULL%2,                              Emily%Page%NULL%0,                              Jennifer G%Duncan%NULL%2,                              Jennifer G%Duncan%NULL%0,                              Thomas%Kannampallil%NULL%2,                              Thomas%Kannampallil%NULL%0,                              Diana L%Gray%NULL%2,                              Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0,                              Ranjan%Bhattacharyya%NULL%1,                              Sumita%Bhattacharyya%NULL%1,                              Sukanya%Gupta%NULL%1,                              Soumitra%Das%NULL%1,                              Bejoy Bikram%Banerjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0,                              Xinghuang%Liu%NULL%2,                              Xinghuang%Liu%NULL%0,                              Dongke%Wang%NULL%2,                              Dongke%Wang%NULL%0,                              Yan%Jin%NULL%2,                              Yan%Jin%NULL%0,                              Miao%He%NULL%1,                              Yanling%Ma%NULL%1,                              Xiaolong%Zhao%NULL%1,                              Shuangning%Song%NULL%1,                              Lei%Zhang%NULL%0,                              Xuelian%Xiang%NULL%1,                              Ling%Yang%NULL%0,                              Jun%Song%song111jun@126.com%1,                              Tao%Bai%drbaitao@126.com%4,                              Xiaohua%Hou%houxh@hust.edu.cn%2,                              Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0,                              Hao%Zhou%haoye320@163.com%1,                              Yan%Zhou%NULL%1,                              Fang%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%1,                              Piyaporn%Apisarnthanarak%NULL%2,                              Piyaporn%Apisarnthanarak%NULL%0,                              Chanida%Siripraparat%NULL%2,                              Chanida%Siripraparat%NULL%0,                              Pavarat%Saengaram%NULL%1,                              Narakorn%Leeprechanon%NULL%1,                              David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%1,                              Davide%Bianchi%NULL%1,                              Francesca%Santi%NULL%1,                              Luigi%Costantini%NULL%1,                              Anna%Odone%NULL%1,                              Carlo%Signorelli%NULL%0,                              Alessandra%Costanza%NULL%1,                              Gianluca%Serafini%NULL%1,                              Mario%Amore%NULL%1,                              Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfredo%Guiroy%NULL%0, Martín%Gagliardi%NULL%2, Martín%Gagliardi%NULL%0, Nicolas%Coombes%NULL%1, Federico%Landriel%NULL%2, Federico%Landriel%NULL%0, Carlos%Zanardi%NULL%1, Gastón Camino%Willhuber%NULL%1, Juan Pablo%Guyot%NULL%1, Marcelo%Valacco%NULL%1]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%0, Nathaniel%Scherer%NULL%10, Lambert%Felix%NULL%20, Lambert%Felix%NULL%0, Hannah%Kuper%NULL%20, Hannah%Kuper%NULL%0, Jakob%Pietschnig%NULL%20, Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Kossi Blewussi%Kounou%benkounou@hotmail.fr%0, Koffi Mawuse%Guédénon%NULL%2, Koffi Mawuse%Guédénon%NULL%0, Ayoko Akouavi%Dogbe Foli%NULL%1, Eric%Gnassounou‐Akpa%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons Australia, Ltd</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0, Simeng%Ma%NULL%0, Ying%Wang%NULL%0, Zhongxiang%Cai%NULL%0, Jianbo%Hu%NULL%0, Ning%Wei%NULL%0, Jiang%Wu%NULL%0, Hui%Du%NULL%0, Tingting%Chen%NULL%0, Ruiting%Li%NULL%0, Huawei%Tan%NULL%0, Lijun%Kang%NULL%0, Lihua%Yao%NULL%0, Manli%Huang%NULL%0, Huafen%Wang%NULL%0, Gaohua%Wang%NULL%0, Zhongchun%Liu%NULL%0, Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>Psychological health among healthcare workers (HCWs) has become a major concern since the COVID-19 outbreak.
+ HCWs perceived risks of contracting COVID-19, in relation to depression were investigated.
+ It was hypothesized that perceived high risk of contracting COVID-19 (close contact with cases, inadequate provision of personal protective equipment, insufficient infection control training, and presence of symptoms) would be significant predictors of depression.
+ Our cross-sectional survey was completed by HCWs across three regions (Hubei, Guangdong, Hong Kong) between March 9 to April 9 2020 using convenience sampling.
+ Depression was assessed using the 9-item Patient Health Questionnaire (PHQ-9).
+ Prevalence of depression was 50.4% (95% CI: 44.5-56.2), 15.1% (10.1-21.9) and 12.9% (10.3-16.2) for HCWs in Hong Kong, Hubei and Guangdong, respectively.
+ The strongest significant risk factors for depression, after adjustment, were HCWs who reported the greatest extent of feeling susceptible to contracting COVID-19 and those who reported the greatest difficulty obtaining face masks.
+ HCWs whose family/peers greatly encouraged face mask use had lower prevalence of depression.
+ Access to adequate supplies of personal protective equipment is essential for the psychological health of HCWs working in stressful environments, through potentially easing their perceptions of vulnerability to COVID-19.</t>
+  </si>
+  <si>
+    <t>[Simon Ching%Lam%NULL%0, Teresa%Arora%NULL%1, Ian%Grey%NULL%1, Lorna Kwai Ping%Suen%NULL%1, Emma Yun-zhi%Huang%NULL%1, Daofan%Li%NULL%1, Kin Bong Hubert%Lam%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of this study was to examine the anxiety status of the frontline clinical nurses in the designated hospitals for the treatment of coronavirus disease 2019 (COVID-19) in Wuhan and to analyze the influencing factors, to provide data for psychologic nursing.
+</t>
+  </si>
+  <si>
+    <t>[Ruilin%Li%NULL%0, Youlin%Chen%NULL%1, Jianlin%Lv%NULL%1, Linlin%Liu%NULL%1, Shiqin%Zong%NULL%1, Hanxia%Li%NULL%1, Hong%Li%NULL%1, Massimo%Tusconi.%NULL%2, Massimo%Tusconi.%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The psychological state of medical staff during the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0, Hang%Wang%NULL%0, Yuxing%Lin%NULL%0, Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Abdallah Y.%Naser%abdallah.naser@iu.edu.jo%0, Eman Zmaily%Dahmash%NULL%0, Eman Zmaily%Dahmash%NULL%0, Rabaa%Al‐Rousan%NULL%0, Rabaa%Al‐Rousan%NULL%0, Hassan%Alwafi%NULL%0, Hamzeh Mohammad%Alrawashdeh%NULL%0, Imene%Ghoul%NULL%0, Anwer%Abidine%NULL%0, Mohammed A.%Bokhary%NULL%0, Hadeel T.%AL‐Hadithi%NULL%0, Dalia%Ali%NULL%0, Rasha%Abuthawabeh%NULL%0, Ghada Mohammad%Abdelwahab%NULL%0, Yosra J.%Alhartani%NULL%0, Haneen%Al Muhaisen%NULL%0, Ayah%Dagash%NULL%0, Hamad S.%Alyami%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Moluk%Pouralizadeh%NULL%0, Zahra%Bostani%NULL%1, Saman%Maroufizadeh%NULL%1, Atefeh%Ghanbari%NULL%1, Maryam%Khoshbakht%NULL%1, Seyed Amirhossein%Alavi%NULL%1, Sadra%Ashrafi%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Jianyu%Que%NULL%0, Le%Shi%NULL%2, Le%Shi%NULL%0, Jiahui%Deng%NULL%1, Jiajia%Liu%NULL%1, Li%Zhang%NULL%0, Suying%Wu%NULL%1, Yimiao%Gong%NULL%1, Weizhen%Huang%NULL%1, Kai%Yuan%NULL%1, Wei%Yan%NULL%1, Yankun%Sun%NULL%1, Maosheng%Ran%NULL%1, Yanping%Bao%NULL%1, Lin%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This cross-sectional study reports on symptoms of posttraumatic stress disorder, depression, anxiety, and insomnia among health care workers in Italy during the coronavirus disease 2019 (COVID-19) pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0, Valentina%Socci%NULL%0, Francesca%Pacitti%NULL%0, Giorgio%Di Lorenzo%NULL%0, Antinisca%Di Marco%NULL%0, Alberto%Siracusano%NULL%0, Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ari%Shechter%NULL%0, Franchesca%Diaz%NULL%1, Nathalie%Moise%NULL%1, D. Edmund%Anstey%NULL%1, Siqin%Ye%NULL%1, Sachin%Agarwal%NULL%1, Jeffrey L.%Birk%NULL%1, Daniel%Brodie%NULL%0, Diane E.%Cannone%NULL%1, Bernard%Chang%NULL%1, Jan%Claassen%NULL%3, Talea%Cornelius%NULL%1, Lilly%Derby%NULL%1, Melissa%Dong%NULL%1, Raymond C.%Givens%NULL%1, Beth%Hochman%NULL%1, Shunichi%Homma%NULL%1, Ian M.%Kronish%NULL%1, Sung A.J.%Lee%NULL%1, Wilhelmina%Manzano%NULL%1, Laurel E.S.%Mayer%NULL%1, Cara L.%McMurry%NULL%1, Vivek%Moitra%NULL%1, Patrick%Pham%NULL%1, LeRoy%Rabbani%NULL%1, Reynaldo R.%Rivera%NULL%1, Allan%Schwartz%NULL%2, Joseph E.%Schwartz%NULL%1, Peter A.%Shapiro%NULL%1, Kaitlin%Shaw%NULL%1, Alexandra M.%Sullivan%NULL%1, Courtney%Vose%NULL%1, Lauren%Wasson%NULL%1, Donald%Edmondson%NULL%1, Marwah%Abdalla%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              A considerable number of medical staff suffered from depressive symptoms and PTSD.
+</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0, Wenning%Fu%NULL%0, Xiaoran%Liu%NULL%0, Zhiqian%Luo%NULL%0, Rixing%Wang%NULL%0, Ning%Zhou%NULL%0, Shijiao%Yan%NULL%0, Chuanzhu%Lv%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantitative studies using validated questionnaires on post-traumatic stress disorder (PTSD) of Nurses exposed to corona virus disease 2019 (COVID-19) in China are rare and the baseline PTSD must first be evaluated before prevention.
+ This study aimed to investigate the factors potentially involved in the level of PTSD of Nurses exposed to COVID-19 in China.
+</t>
+  </si>
+  <si>
+    <t>[Ya-Xi%Wang%NULL%0, Hong-Tao%Guo%NULL%1, Xue-Wei%Du%NULL%1, Wen%Song%NULL%1, Chang%Lu%NULL%1, Wen-Nv%Hao%NULL%1, Maria%Kapritsou.%NULL%3, Maria%Kapritsou.%NULL%0, Maria%Kapritsou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Xiao%NULL%0, Xiaobin%Zhu%NULL%0, Shuai%Fu%NULL%0, Yugang%Hu%NULL%0, Xiaoning%Li%NULL%0, Jinsong%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              A sizable portion of healthcare staff reached the cutoff levels of disorders in anxiety (28.0%), depression (30.6%), and distress (20.1%) to require mental health attention themselves.
+</t>
+  </si>
+  <si>
+    <t>[Stephen X.%Zhang%NULL%0, Jing%Liu%NULL%0, Asghar%Afshar Jahanshahi%NULL%0, Khaled%Nawaser%NULL%0, Ali%Yousefi%NULL%0, Jizhen%Li%NULL%0, Shuhua%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0, Kun%Wang%NULL%0, Lu%Yin%NULL%0, Wen-feng%Zhao%NULL%0, Qing%Xue%NULL%0, Mao%Peng%NULL%0, Bao-quan%Min%NULL%0, Qing%Tian%NULL%0, Hai-xia%Leng%NULL%0, Jia-lin%Du%NULL%0, Hong%Chang%NULL%0, Yuan%Yang%NULL%0, Wei%Li%NULL%0, Fang-fang%Shangguan%NULL%0, Tian-yi%Yan%NULL%0, Hui-qing%Dong%NULL%0, Ying%Han%NULL%0, Yu-ping%Wang%NULL%0, Fiammetta%Cosci%NULL%0, Hong-xing%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>S. Karger AG</t>
+  </si>
+  <si>
+    <t>[Yeen%Huang%NULL%0, Ning%Zhao%zhaoning2018@email.szu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Juhong%Zhu%NULL%0, Lin%Sun%NULL%0, Lan%Zhang%NULL%0, Huan%Wang%NULL%0, Ajiao%Fan%NULL%0, Bin%Yang%NULL%0, Wei%Li%NULL%0, Shifu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiang%Du%NULL%0, Lu%Dong%NULL%0, Tao%Wang%NULL%0, Chenxin%Yuan%NULL%0, Rao%Fu%NULL%0, Lei%Zhang%NULL%0, Bo%Liu%NULL%0, Mingmin%Zhang%NULL%0, Yuanyuan%Yin%NULL%0, Jiawen%Qin%NULL%0, Jennifer%Bouey%NULL%0, Min%Zhao%NULL%0, Xin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rümeysa Yeni%Elbay%rumeysa.yenielbay@medeniyet.edu.tr%0, Ayşe%Kurtulmuş%NULL%0, Selim%Arpacıoğlu%NULL%0, Emrah%Karadere%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anne%Moorhead%NULL%0, Gunther%Eysenbach%NULL%0, Albert%Wu%NULL%2, Albert%Wu%NULL%0, Bojana%Knezevic%NULL%1, Bradley A%Evanoff%bevanoff@wustl.edu%2, Bradley A%Evanoff%bevanoff@wustl.edu%0, Jaime R%Strickland%NULL%2, Jaime R%Strickland%NULL%0, Ann Marie%Dale%NULL%2, Ann Marie%Dale%NULL%0, Lisa%Hayibor%NULL%2, Lisa%Hayibor%NULL%0, Emily%Page%NULL%2, Emily%Page%NULL%0, Jennifer G%Duncan%NULL%2, Jennifer G%Duncan%NULL%0, Thomas%Kannampallil%NULL%2, Thomas%Kannampallil%NULL%0, Diana L%Gray%NULL%2, Diana L%Gray%NULL%0]</t>
+  </si>
+  <si>
+    <t>JMIR Publications</t>
+  </si>
+  <si>
+    <t>[Seshadri Sekhar%Chatterjee%NULL%0, Ranjan%Bhattacharyya%NULL%0, Sumita%Bhattacharyya%NULL%0, Sukanya%Gupta%NULL%0, Soumitra%Das%NULL%0, Bejoy Bikram%Banerjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer - Medknow</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0, Xinghuang%Liu%NULL%2, Xinghuang%Liu%NULL%0, Dongke%Wang%NULL%2, Dongke%Wang%NULL%0, Yan%Jin%NULL%2, Yan%Jin%NULL%0, Miao%He%NULL%1, Yanling%Ma%NULL%0, Xiaolong%Zhao%NULL%1, Shuangning%Song%NULL%1, Lei%Zhang%NULL%0, Xuelian%Xiang%NULL%1, Ling%Yang%NULL%0, Jun%Song%song111jun@126.com%1, Tao%Bai%drbaitao@126.com%0, Xiaohua%Hou%houxh@hust.edu.cn%2, Xiaohua%Hou%houxh@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Yun%Chen%NULL%0, Hao%Zhou%haoye320@163.com%0, Yan%Zhou%NULL%0, Fang%Zhou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anucha%Apisarnthanarak%NULL%0, Piyaporn%Apisarnthanarak%NULL%2, Piyaporn%Apisarnthanarak%NULL%0, Chanida%Siripraparat%NULL%2, Chanida%Siripraparat%NULL%0, Pavarat%Saengaram%NULL%1, Narakorn%Leeprechanon%NULL%1, David J.%Weber%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>[Andrea%Amerio%NULL%0, Davide%Bianchi%NULL%1, Francesca%Santi%NULL%0, Luigi%Costantini%NULL%1, Anna%Odone%NULL%2, Carlo%Signorelli%NULL%0, Alessandra%Costanza%NULL%1, Gianluca%Serafini%NULL%1, Mario%Amore%NULL%1, Andrea%Aguglia%NULL%1]</t>
+  </si>
+  <si>
+    <t>Mattioli 1885</t>
   </si>
 </sst>
 </file>
@@ -3685,7 +4030,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>977</v>
+        <v>1064</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -3697,10 +4042,10 @@
         <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3">
@@ -3717,7 +4062,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>978</v>
+        <v>1066</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -3729,10 +4074,10 @@
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="4">
@@ -3743,22 +4088,22 @@
         <v>43910.0</v>
       </c>
       <c r="C4" t="s">
-        <v>945</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>979</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>948</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>949</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
         <v>63</v>
@@ -3781,7 +4126,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -3793,10 +4138,10 @@
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="6">
@@ -3813,7 +4158,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>982</v>
+        <v>1068</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -3825,10 +4170,10 @@
         <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="7">
@@ -3845,7 +4190,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>983</v>
+        <v>1070</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -3857,10 +4202,10 @@
         <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="8">
@@ -3874,10 +4219,10 @@
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>1072</v>
       </c>
       <c r="E8" t="s">
-        <v>984</v>
+        <v>1073</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -3889,10 +4234,10 @@
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="9">
@@ -3909,7 +4254,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -3921,10 +4266,10 @@
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="10">
@@ -3938,10 +4283,10 @@
         <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>1075</v>
       </c>
       <c r="E10" t="s">
-        <v>985</v>
+        <v>1076</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -3953,10 +4298,10 @@
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="11">
@@ -3973,7 +4318,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -3985,10 +4330,10 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="12">
@@ -4002,10 +4347,10 @@
         <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>1078</v>
       </c>
       <c r="E12" t="s">
-        <v>986</v>
+        <v>1079</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -4017,10 +4362,10 @@
         <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13">
@@ -4037,7 +4382,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>987</v>
+        <v>1081</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -4049,10 +4394,10 @@
         <v>91</v>
       </c>
       <c r="I13" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="14">
@@ -4069,7 +4414,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>988</v>
+        <v>1083</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -4081,10 +4426,10 @@
         <v>96</v>
       </c>
       <c r="I14" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="15">
@@ -4133,7 +4478,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>989</v>
+        <v>1085</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -4145,10 +4490,10 @@
         <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="17">
@@ -4162,10 +4507,10 @@
         <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>1087</v>
       </c>
       <c r="E17" t="s">
-        <v>990</v>
+        <v>1088</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
@@ -4177,10 +4522,10 @@
         <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="18">
@@ -4191,25 +4536,25 @@
         <v>43987.0</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>991</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>592</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>745</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
         <v>63</v>
@@ -4229,7 +4574,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>992</v>
+        <v>1089</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -4241,10 +4586,10 @@
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="20">
@@ -4258,10 +4603,10 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>1091</v>
       </c>
       <c r="E20" t="s">
-        <v>993</v>
+        <v>1092</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -4273,10 +4618,10 @@
         <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="21">
@@ -4293,7 +4638,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -4305,10 +4650,10 @@
         <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="22">
@@ -4325,7 +4670,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -4337,10 +4682,10 @@
         <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="23">
@@ -4357,7 +4702,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -4369,10 +4714,10 @@
         <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="24">
@@ -4386,10 +4731,10 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>1093</v>
       </c>
       <c r="E24" t="s">
-        <v>994</v>
+        <v>1094</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
@@ -4401,10 +4746,10 @@
         <v>124</v>
       </c>
       <c r="I24" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25">
@@ -4421,7 +4766,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -4433,10 +4778,10 @@
         <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="26">
@@ -4453,7 +4798,7 @@
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>995</v>
+        <v>1095</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -4465,10 +4810,10 @@
         <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="27">
@@ -4482,10 +4827,10 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>1097</v>
       </c>
       <c r="E27" t="s">
-        <v>996</v>
+        <v>1098</v>
       </c>
       <c r="F27" t="s">
         <v>133</v>
@@ -4497,10 +4842,10 @@
         <v>134</v>
       </c>
       <c r="I27" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="28">
@@ -4517,7 +4862,7 @@
         <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>997</v>
+        <v>1099</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
@@ -4529,10 +4874,10 @@
         <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="29">
@@ -4549,7 +4894,7 @@
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>998</v>
+        <v>1101</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -4561,10 +4906,10 @@
         <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="30">
@@ -4581,7 +4926,7 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>999</v>
+        <v>1102</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
@@ -4593,10 +4938,10 @@
         <v>149</v>
       </c>
       <c r="I30" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="31">
@@ -4613,7 +4958,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>1000</v>
+        <v>1103</v>
       </c>
       <c r="F31" t="s">
         <v>152</v>
@@ -4625,10 +4970,10 @@
         <v>153</v>
       </c>
       <c r="I31" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="32">
@@ -4645,7 +4990,7 @@
         <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>1001</v>
+        <v>1104</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -4657,10 +5002,10 @@
         <v>101</v>
       </c>
       <c r="I32" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J32" t="s">
-        <v>63</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="33">
@@ -4677,7 +5022,7 @@
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>1002</v>
+        <v>1105</v>
       </c>
       <c r="F33" t="s">
         <v>161</v>
@@ -4689,10 +5034,10 @@
         <v>162</v>
       </c>
       <c r="I33" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="34">
@@ -4709,7 +5054,7 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -4721,10 +5066,10 @@
         <v>60</v>
       </c>
       <c r="I34" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="35">
@@ -4741,7 +5086,7 @@
         <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>1003</v>
+        <v>1107</v>
       </c>
       <c r="F35" t="s">
         <v>166</v>
@@ -4753,10 +5098,10 @@
         <v>167</v>
       </c>
       <c r="I35" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="36">
@@ -4770,10 +5115,10 @@
         <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>543</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>1004</v>
+        <v>1109</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -4785,10 +5130,10 @@
         <v>172</v>
       </c>
       <c r="I36" t="s">
-        <v>759</v>
+        <v>63</v>
       </c>
       <c r="J36" t="s">
-        <v>63</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="37">
@@ -4805,7 +5150,7 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>1005</v>
+        <v>1111</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -4817,10 +5162,10 @@
         <v>176</v>
       </c>
       <c r="I37" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="38">
@@ -4831,28 +5176,28 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>607</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>424</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>425</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
         <v>63</v>
       </c>
       <c r="J38" t="s">
-        <v>824</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
@@ -4869,7 +5214,7 @@
         <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>1006</v>
+        <v>1112</v>
       </c>
       <c r="F39" t="s">
         <v>179</v>
@@ -4881,10 +5226,10 @@
         <v>180</v>
       </c>
       <c r="I39" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J39" t="s">
-        <v>63</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="40">
@@ -4901,7 +5246,7 @@
         <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>1007</v>
+        <v>1114</v>
       </c>
       <c r="F40" t="s">
         <v>184</v>
@@ -4913,10 +5258,10 @@
         <v>185</v>
       </c>
       <c r="I40" t="s">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>63</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="41">
@@ -4933,7 +5278,7 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
@@ -4945,10 +5290,10 @@
         <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>731</v>
+        <v>63</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
